--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value877.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value877.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.223557748744154</v>
+        <v>1.921492695808411</v>
       </c>
       <c r="B1">
-        <v>2.541652990526662</v>
+        <v>2.954934120178223</v>
       </c>
       <c r="C1">
-        <v>3.577113203463885</v>
+        <v>2.359329462051392</v>
       </c>
       <c r="D1">
-        <v>3.023289363015643</v>
+        <v>2.230969429016113</v>
       </c>
       <c r="E1">
-        <v>1.122604918570753</v>
+        <v>1.930059194564819</v>
       </c>
     </row>
   </sheetData>
